--- a/financial_files/excel/ADSK.xlsx
+++ b/financial_files/excel/ADSK.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O114" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O114" headerRowCount="1">
   <autoFilter ref="A1:O114"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/ADSK.xlsx
+++ b/financial_files/excel/ADSK.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,47 @@
     <tableColumn id="13" name="2019"/>
     <tableColumn id="14" name="2020"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:U23" headerRowCount="1">
+  <autoFilter ref="A1:U23"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2001"/>
+    <tableColumn id="3" name="2002"/>
+    <tableColumn id="4" name="2003"/>
+    <tableColumn id="5" name="2004"/>
+    <tableColumn id="6" name="2005"/>
+    <tableColumn id="7" name="2006"/>
+    <tableColumn id="8" name="2007"/>
+    <tableColumn id="9" name="2008"/>
+    <tableColumn id="10" name="2009"/>
+    <tableColumn id="11" name="2010"/>
+    <tableColumn id="12" name="2011"/>
+    <tableColumn id="13" name="2012"/>
+    <tableColumn id="14" name="2013"/>
+    <tableColumn id="15" name="2014"/>
+    <tableColumn id="16" name="2015"/>
+    <tableColumn id="17" name="2016"/>
+    <tableColumn id="18" name="2017"/>
+    <tableColumn id="19" name="2018"/>
+    <tableColumn id="20" name="2019"/>
+    <tableColumn id="21" name="2020"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6757,4 +6800,2255 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>936324000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>947491000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>824945000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>951643000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1238900000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1537200000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1839800000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2171900000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2315200000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1713700000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1951800000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2215600000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2312200000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2273900000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2512200000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2504100000</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2031000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2056600000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2569800000</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3274300000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>138780000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>131804000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50849000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>109420000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>258400000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>378500000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>349700000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>445600000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>413600000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>134800000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>282200000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>354300000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>349800000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>297600000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>123800000</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-419100000</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-415000000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>16900000</v>
+      </c>
+      <c r="U3" t="n">
+        <v>343500000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>144773000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>126693000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38466000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>123196000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>243100000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>391700000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>366500000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>470000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>252500000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>84700000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>272000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>362900000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>310000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>279900000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>83000000</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-20300000</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-523800000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-557300000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-42700000</v>
+      </c>
+      <c r="U4" t="n">
+        <v>294800000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-51540000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-35169000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-6562000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2880000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-22000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-58100000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-76800000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-113800000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-68900000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-26700000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-60000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-77600000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-62600000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-51100000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1200000</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-310200000</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-58300000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-9600000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-38100000</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-80300000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>234056000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>224550000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>229550000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>231304000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>245667000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>247500000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>243200000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>242000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>230100000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>232100000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>234200000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>233300000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>231700000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>229600000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>232400000</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>226000000</v>
+      </c>
+      <c r="R7" t="n">
+        <v>222700000</v>
+      </c>
+      <c r="S7" t="n">
+        <v>219500000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>218900000</v>
+      </c>
+      <c r="U7" t="n">
+        <v>222500000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>807759000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>902444000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>883650000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1017160000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1142204000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1355800000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1797500000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2212200000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2420700000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2447200000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2787600000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3227800000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4308400000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4595000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4909700000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5515300000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4798100000</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4113600000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>4729200000</v>
+      </c>
+      <c r="U8" t="n">
+        <v>6179300000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>52100000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>398700000</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>449700000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>745600000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>746400000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>743100000</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1487700000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1092000000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1586000000</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2087700000</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1635100000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>472638000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>529314000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>569208000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>621643000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>648078000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>803000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1115000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1230500000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1310700000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1473500000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1609300000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1882900000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2043200000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2261500000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2219200000</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1619600000</v>
+      </c>
+      <c r="R11" t="n">
+        <v>733600000</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-256000000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-210900000</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-139100000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>196119000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>210156000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>86234000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>220083000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>373300000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>415200000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>576600000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>708500000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>593900000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>246800000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>540800000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>573500000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>559100000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>563500000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>708600000</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>414000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>169700000</v>
+      </c>
+      <c r="S12" t="n">
+        <v>900000</v>
+      </c>
+      <c r="T12" t="n">
+        <v>377100000</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1415100000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-32412000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-45068000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-36103000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-31002000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-42400000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-20500000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-35300000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-43300000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-78400000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-39000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-28300000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-63000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-56400000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-64200000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-75500000</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-72400000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-76000000</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-50700000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-67000000</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-53200000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2161</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.2371</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0822</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.3331</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9412</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.0324</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6004</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.9352</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4845</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1074</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3627</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.4527</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.1962</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.1999</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-0.4209</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-0.8975</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.2726</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1416</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0119</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.1293</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.1535</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.3018</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2407</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1968</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1805</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0659</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.2598</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1389</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1351</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.0165</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.1047</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.0032</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.1889</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.0126</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.2495</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.2741</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2.7142</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.7307</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.1185</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.2352</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.4557</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.6875</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3555</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.1229</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.0654</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-5.1714</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-0.7876</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.8565</v>
+      </c>
+      <c r="U16" t="n">
+        <v>3.5945</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.2152</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1199</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.07530000000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3885</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1035</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.06510000000000001</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1242</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0921</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0851</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1068</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.0187</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-0.2701</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.547</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-1.3489</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.1761</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.3404</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8929</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.07149999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.5896</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.5521</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.6961000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.3887</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2287</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.1617</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.5844</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.1912</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0604</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.0251</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.2574</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.4157</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.9946</v>
+      </c>
+      <c r="T18" t="n">
+        <v>418</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.7525</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7367</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.6963</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2.7717</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.1928</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3714</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2288</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-0.225</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.5968</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.4663</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.0039</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.0152</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.0067</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.2679</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.4604</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.7257</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-1.5314</v>
+      </c>
+      <c r="T19" t="n">
+        <v>7.2269</v>
+      </c>
+      <c r="U19" t="n">
+        <v>3.3918</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>163707000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>165088000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50131000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>189081000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>330900000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>394700000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>541300000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>665200000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>515500000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>207800000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>512500000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>510500000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>502700000</v>
+      </c>
+      <c r="O20" t="n">
+        <v>499300000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>633100000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>341600000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>93700000</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-49800000</v>
+      </c>
+      <c r="T20" t="n">
+        <v>310100000</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1361900000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.0193</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.3572</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.4796</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.6875</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2.638</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.2444</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4.5847</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.0847</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.6962</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.3485</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.8714</v>
+      </c>
+      <c r="M21" t="n">
+        <v>8.0707</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.818199999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9.8497</v>
+      </c>
+      <c r="P21" t="n">
+        <v>9.548999999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>7.1663</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.2941</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-1.1662</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.9634</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.6251</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2017852320</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2281383500</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1677224160</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2871204000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6684935070</v>
+      </c>
+      <c r="G22" t="n">
+        <v>9339759000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10108064000</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9464500000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3749184000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5445531000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>9234360000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>8132400000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>8693568000</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11618375000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>12260270000</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>10506408000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>17919202000</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25239846000</v>
+      </c>
+      <c r="T22" t="n">
+        <v>32295680000</v>
+      </c>
+      <c r="U22" t="n">
+        <v>43188890000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21.6431</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25.2608</v>
+      </c>
+      <c r="D23" t="n">
+        <v>52.5709</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23.8638</v>
+      </c>
+      <c r="F23" t="n">
+        <v>30.2348</v>
+      </c>
+      <c r="G23" t="n">
+        <v>27.9968</v>
+      </c>
+      <c r="H23" t="n">
+        <v>34.8914</v>
+      </c>
+      <c r="I23" t="n">
+        <v>26.5707</v>
+      </c>
+      <c r="J23" t="n">
+        <v>20.4203</v>
+      </c>
+      <c r="K23" t="n">
+        <v>93.8884</v>
+      </c>
+      <c r="L23" t="n">
+        <v>43.5583</v>
+      </c>
+      <c r="M23" t="n">
+        <v>28.5047</v>
+      </c>
+      <c r="N23" t="n">
+        <v>35.1397</v>
+      </c>
+      <c r="O23" t="n">
+        <v>50.7796</v>
+      </c>
+      <c r="P23" t="n">
+        <v>149.881</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-31.7894</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-30.7837</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-44.5225</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-399.699</v>
+      </c>
+      <c r="U23" t="n">
+        <v>201.3468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-7.49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-5.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-27.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-25.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>27.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-22.10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-43.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-48.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>35.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>22.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>111.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>359.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>17.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>27.41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>144.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>339.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>19.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>14.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>102.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>275.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1635100000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1.92799994492171</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3491</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.1970157948217458</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1970157948217458</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2148706236759887</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.241549999999998</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-39.40315896434915</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-39.40315896434915</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-8.466581341473828</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-2.092809420749081</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-1.046404710374541</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Autodesk, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Software—Application</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.autodesk.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>65271848960</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1279354</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>57.41586</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>305.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>